--- a/Jogos_do_Dia/2024-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
         <v>2.25</v>
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -775,7 +775,7 @@
         <v>2.75</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="AM2" t="n">
         <v>2.05</v>
@@ -857,10 +857,10 @@
         <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T3" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -996,10 +996,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3.44</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1138,7 +1138,7 @@
         <v>1.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.56</v>
@@ -1247,13 +1247,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="M6" t="n">
         <v>1.3</v>
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U6" t="n">
         <v>1.55</v>
@@ -1413,10 +1413,10 @@
         <v>6.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="T7" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
         <v>1.65</v>
@@ -1552,10 +1552,10 @@
         <v>4.28</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T8" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1664,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1685,16 +1685,16 @@
         <v>8.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.91</v>
+        <v>2.31</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1803,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="M10" t="n">
         <v>1.36</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>10.2</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.3</v>
       </c>
-      <c r="R11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.26</v>
-      </c>
       <c r="Y11" t="n">
-        <v>2.05</v>
+        <v>1.46</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.18</v>
+        <v>2.07</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.51</v>
+        <v>2.99</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.19</v>
+        <v>1.81</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,128 +2059,128 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.61</v>
+        <v>1.75</v>
       </c>
       <c r="K12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R12" t="n">
         <v>3.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.22</v>
       </c>
-      <c r="R12" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AA12" t="n">
-        <v>2.07</v>
+        <v>1.18</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="AC12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL12" t="n">
         <v>1.47</v>
       </c>
-      <c r="AD12" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AM12" t="n">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="13">
@@ -2247,10 +2247,10 @@
         <v>3.4</v>
       </c>
       <c r="S13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.96</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2341,100 +2341,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>1.41</v>
@@ -2443,22 +2443,22 @@
         <v>2.55</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AM14" t="n">
         <v>1.98</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="T15" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -2619,100 +2619,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="H16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="X16" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AB16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC16" t="n">
         <v>1.48</v>
       </c>
-      <c r="AC16" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AD16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE16" t="n">
         <v>2.8</v>
       </c>
-      <c r="AE16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AF16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AJ16" t="n">
         <v>1.41</v>
@@ -2721,22 +2721,22 @@
         <v>2.55</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AM16" t="n">
         <v>1.98</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17">
@@ -2803,10 +2803,10 @@
         <v>3.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="T17" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>2.05</v>
@@ -2881,7 +2881,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CD Tondela</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="N18" t="n">
-        <v>2.54</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.04</v>
       </c>
       <c r="P18" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="R18" t="n">
-        <v>2.71</v>
+        <v>5.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>2.48</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH18" t="n">
         <v>1.27</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AI18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.29</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,128 +3032,128 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>CD Tondela</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.98</v>
       </c>
       <c r="J19" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>2.54</v>
       </c>
       <c r="O19" t="n">
         <v>1.04</v>
       </c>
       <c r="P19" t="n">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="R19" t="n">
-        <v>5.8</v>
+        <v>2.71</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="T19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AP19" t="n">
         <v>2</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3.05</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
